--- a/Labs/Lab2/Python/data.xlsx
+++ b/Labs/Lab2/Python/data.xlsx
@@ -46,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +449,133 @@
         </is>
       </c>
       <c r="F1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5CF65589B1DE6C0269BC9FA30C2814B2961DB5A2E7EE60F24051A7EC0A681C17</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.3508624731828703</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>сыр</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5CF65589B1DE6C0269BC9FA30C2814B2961DB5A2E7EE60F24051A7EC0A681C17</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.3508624731828703</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>хлеб</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5CF65589B1DE6C0269BC9FA30C2814B2961DB5A2E7EE60F24051A7EC0A681C17</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.3508624731828703</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>мясо</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5CF65589B1DE6C0269BC9FA30C2814B2961DB5A2E7EE60F24051A7EC0A681C17</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.3508624731828703</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>корзина</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5CF65589B1DE6C0269BC9FA30C2814B2961DB5A2E7EE60F24051A7EC0A681C17</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.3508624731828703</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>сыр</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5CF65589B1DE6C0269BC9FA30C2814B2961DB5A2E7EE60F24051A7EC0A681C17</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.3508624731828703</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>сыр</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
